--- a/RTE_Configurator test plan.xlsx
+++ b/RTE_Configurator test plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\RTE_Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -18,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Requirements</t>
   </si>
@@ -108,9 +103,6 @@
     <t>CST</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Check the tool behavior in case of arxml not well formed</t>
   </si>
   <si>
@@ -313,10 +305,6 @@
     <t>- check in the output script that the parameter RteEventToTaskMapping is present and has the correct form</t>
   </si>
   <si>
-    <t>- check if the corresponding error is present in the log
-- check that the output script is not created</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -612,7 +600,225 @@
     <t>- check that the TIMING-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
   </si>
   <si>
-    <t>- check that the DATA-RECEIVED-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_EVT</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will have an &lt;EVENTS-CALLED&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.FUNC.005</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.FUNC.006</t>
+  </si>
+  <si>
+    <t>Check that the position in task starts from 1 for each task and increments by one unit</t>
+  </si>
+  <si>
+    <t>- check that the RtePositionInTask for event2 is 1, for event3 is 2 and for event1 is 3</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.FUNC.007</t>
+  </si>
+  <si>
+    <t>Check that the RteActivationOffset parameter is 0 for each present event</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2 but before event1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3)</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the RteActivationOffset  not set for each event</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.FUNC.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the order is respected when dealing with SWC-MODE-SWITCH-EVENT </t>
+  </si>
+  <si>
+    <t>- check  in the script that the order is event3, event2, event1</t>
+  </si>
+  <si>
+    <t>Check that the tool will manage an existing cycke between different tasks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2, event2 after event1, and event1 after event3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where event1 has an EVENTS-CALLED to event2, and event2 has an EVENTS-CALLED to event3</t>
+    </r>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- check if the corresponding error is present in the log
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- check that the output script is not created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- check if the corresponding error is present in the log (event 2 has an EVENTS-CALLED and is referenced in another EVENTS-CALLED)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- check that the output script is not created</t>
+    </r>
+  </si>
+  <si>
+    <t>RTECONFIG.1</t>
+  </si>
+  <si>
+    <t>RTECONFIG.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- check that the output arxml file is not produced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- check the log for the corresponding error</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the DATA-RECEIVED-EVENT is present in the script, and its RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_EVT</t>
+  </si>
+  <si>
+    <t>[[3,2,1], [3,1,2]]</t>
   </si>
   <si>
     <r>
@@ -634,15 +840,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">: Provide to the tool one arxml file which contains one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s set for the existing swc component that references the DATA-RECEIVED-EVENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -652,7 +876,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -665,48 +888,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will have an &lt;EVENTS-CALLED&gt; </t>
-    </r>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.005</t>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.006</t>
-  </si>
-  <si>
-    <t>Check that the position in task starts from 1 for each task and increments by one unit</t>
-  </si>
-  <si>
-    <t>- check that the RtePositionInTask for event2 is 1, for event3 is 2 and for event1 is 3</t>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.007</t>
-  </si>
-  <si>
-    <t>Check that the RteActivationOffset parameter is 0 for each present event</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -716,131 +897,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2 but before event1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3)</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the RteActivationOffset  not set for each event</t>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that the order is respected when dealing with SWC-MODE-SWITCH-EVENT </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>: Provide to the tool one arxml file that contains three events (event1 of type SWC-MODE-SWITCH-EVENT , event2 of type DATA-RECEIVED-EVENT and event 3 of type SWC-MODE-SWITCH-EVENT). The event1 one will have ACTIVATION = ON-ENTRY, while the event 3 will have ACTIVATION = ON-EXIT, and all the three events will be mapped on the same task</t>
     </r>
-  </si>
-  <si>
-    <t>- check  in the script that the order is event3, event2, event1</t>
-  </si>
-  <si>
-    <t>Check that the tool will manage an existing cycke between different tasks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2, event2 after event1, and event1 after event3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where event1 has an EVENTS-CALLED to event2, and event2 has an EVENTS-CALLED to event3</t>
-    </r>
-  </si>
-  <si>
-    <t>- check if the corresponding error is present in the log (event 2 has an EVENTS-CALLED and is referenced in another EVENTS-CALLED)
-- check that the output script is not created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +921,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1114,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1177,20 +1283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1201,14 +1299,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,28 +1706,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1618,111 +1741,111 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="17"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1735,19 +1858,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
@@ -1755,8 +1878,8 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -1775,516 +1898,522 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:7" ht="30.75" thickTop="1">
+      <c r="A2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="A12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="45">
+      <c r="A25" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F29" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>12</v>
+    <row r="31" spans="1:6">
+      <c r="B31" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/RTE_Configurator test plan.xlsx
+++ b/RTE_Configurator test plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\RTE_Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -11,11 +16,11 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Requirements</t>
   </si>
@@ -903,13 +908,39 @@
       </rPr>
       <t>: Provide to the tool one arxml file that contains three events (event1 of type SWC-MODE-SWITCH-EVENT , event2 of type DATA-RECEIVED-EVENT and event 3 of type SWC-MODE-SWITCH-EVENT). The event1 one will have ACTIVATION = ON-ENTRY, while the event 3 will have ACTIVATION = ON-EXIT, and all the three events will be mapped on the same task</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool one arxml file which contains one TIMING-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the SWC-MODE-SWITCH-EVENT </t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the SWC-MODE-SWITCH-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,7 +1002,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1216,11 +1247,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1302,12 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,6 +1418,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,28 +1816,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1741,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1755,97 +1865,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="17"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1858,17 +1968,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
@@ -1878,7 +1988,7 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" thickTop="1">
+    <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +2028,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>30</v>
       </c>
@@ -1938,7 +2048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +2068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
@@ -1978,11 +2088,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1997,11 +2107,11 @@
       <c r="F6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7" ht="60">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
@@ -2015,9 +2125,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
@@ -2031,9 +2141,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
@@ -2047,7 +2157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>49</v>
       </c>
@@ -2067,7 +2177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>51</v>
       </c>
@@ -2087,7 +2197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>55</v>
       </c>
@@ -2107,11 +2217,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -2127,9 +2237,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="18" t="s">
         <v>63</v>
       </c>
@@ -2143,9 +2253,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="18" t="s">
         <v>64</v>
       </c>
@@ -2159,9 +2269,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="18" t="s">
         <v>65</v>
       </c>
@@ -2175,9 +2285,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="18" t="s">
         <v>66</v>
       </c>
@@ -2191,11 +2301,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="49" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -2211,9 +2321,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="18" t="s">
         <v>96</v>
       </c>
@@ -2227,10 +2337,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="45" t="s">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2243,9 +2353,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="75">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="18" t="s">
         <v>71</v>
       </c>
@@ -2259,176 +2369,192 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="18" t="s">
+      <c r="E23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="18" t="s">
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="45">
-      <c r="A25" s="26" t="s">
+      <c r="E25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B26" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="26" t="s">
+      <c r="E26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75">
-      <c r="A27" s="26" t="s">
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="38" t="s">
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A29" s="39" t="s">
+      <c r="E29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E30" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F30" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:E27"/>
   <mergeCells count="8">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E1048576 E1:E21">
+  <conditionalFormatting sqref="E26:E1048576 E1:E22">
     <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -2436,7 +2562,7 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F29 F2:F21">
+  <conditionalFormatting sqref="F26:F30 F2:F22">
     <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -2444,12 +2570,12 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F29 F2:F21">
+  <conditionalFormatting sqref="F26:F30 F2:F22">
     <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E24">
+  <conditionalFormatting sqref="E23:E25">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"done"</formula>
     </cfRule>
@@ -2457,7 +2583,7 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24">
+  <conditionalFormatting sqref="F23:F25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -2465,16 +2591,16 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24">
+  <conditionalFormatting sqref="F23:F25">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RTE_Configurator test plan.xlsx
+++ b/RTE_Configurator test plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\RTE_Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -16,19 +11,14 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>Requirements</t>
   </si>
@@ -185,9 +175,6 @@
     <t>TRS.RTECONFIG.INOUT.002</t>
   </si>
   <si>
-    <t>TRS.RTECONFIG.INOUT.100</t>
-  </si>
-  <si>
     <t>Check that the Scriptor script file is produced in the specified output path</t>
   </si>
   <si>
@@ -278,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>TRS.RTECONFIG.CHECK.002</t>
-  </si>
-  <si>
     <t>Check that the output parameter RteEventToTaskMapping  is not set if input data is not correct</t>
   </si>
   <si>
@@ -417,9 +401,6 @@
     <t>- check that the MappedToOsApplicationRef parameter is set, and contains the SWC reference</t>
   </si>
   <si>
-    <t>TRS.RTECONFIG.FUNC.002</t>
-  </si>
-  <si>
     <t>Check that the MappedToOsApplicationRef parameter is set with the correct parameters</t>
   </si>
   <si>
@@ -449,15 +430,15 @@
     <t>- check that the MappedToOsApplicationRef parameter is set with the correct CORE and PARTITION values</t>
   </si>
   <si>
-    <t>TRS.RTECONFIG.FUNC.003</t>
-  </si>
-  <si>
     <t>- check in the script that for that event, the parameters RteMappedToTaskRef, RteActivationOffset and RtePositionInTask are set</t>
   </si>
   <si>
     <t>- check that in the script there is none of the above parameters set</t>
   </si>
   <si>
+    <t>Check that the RteMappedToTaskRef parameter is built with the correct elements</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -477,54 +458,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Provide to the tool one arxml file which contains one event, and one constraint file, which has the UNMAPPED attribute not set</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file which contains one event, and one constraint file, which has the UNMAPPED attribute set to 'true'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file which contains one event, and one constraint file, which has the UNMAPPED attribute set to '1'</t>
-    </r>
+      <t>: Provide to the tool one arxml file which contains one TIMING-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the TIMING-EVENT</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the TIMING-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
   </si>
   <si>
     <r>
@@ -546,37 +484,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Provide to the tool one arxml file which contains one event, and has the UNMAPPED attribute set to 'false'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file which contains one event, and has the UNMAPPED attribute set to '0'</t>
-    </r>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.004</t>
-  </si>
-  <si>
-    <t>Check that the RteMappedToTaskRef parameter is built with the correct elements</t>
+      <t xml:space="preserve">: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will have an &lt;EVENTS-CALLED&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>Check that the position in task starts from 1 for each task and increments by one unit</t>
+  </si>
+  <si>
+    <t>- check that the RtePositionInTask for event2 is 1, for event3 is 2 and for event1 is 3</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.FUNC.007</t>
+  </si>
+  <si>
+    <t>Check that the RteActivationOffset parameter is 0 for each present event</t>
   </si>
   <si>
     <r>
@@ -598,52 +519,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Provide to the tool one arxml file which contains one TIMING-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the TIMING-EVENT</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the TIMING-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will have an &lt;EVENTS-CALLED&gt; </t>
-    </r>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.005</t>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.006</t>
-  </si>
-  <si>
-    <t>Check that the position in task starts from 1 for each task and increments by one unit</t>
-  </si>
-  <si>
-    <t>- check that the RtePositionInTask for event2 is 1, for event3 is 2 and for event1 is 3</t>
-  </si>
-  <si>
-    <t>TRS.RTECONFIG.FUNC.007</t>
-  </si>
-  <si>
-    <t>Check that the RteActivationOffset parameter is 0 for each present event</t>
+      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2 but before event1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -665,29 +542,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3), and one event constraint file, where the event3 is scheduled after event2 but before event1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>: Provide to the tool one arxml file that contains three events (event1, event2 and event 3)</t>
     </r>
   </si>
@@ -699,9 +553,6 @@
   </si>
   <si>
     <t xml:space="preserve">Check that the order is respected when dealing with SWC-MODE-SWITCH-EVENT </t>
-  </si>
-  <si>
-    <t>- check  in the script that the order is event3, event2, event1</t>
   </si>
   <si>
     <t>Check that the tool will manage an existing cycke between different tasks</t>
@@ -889,10 +740,150 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <t>- check that the SWC-MODE-SWITCH-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.003</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.00A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.INOUT.003</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.002</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.0001</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.004</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.0002</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.006</t>
+  </si>
+  <si>
+    <t>TRS.RTECONFIG.GEN.005</t>
+  </si>
+  <si>
+    <t>Check if one event will be MAPPED or UNMAPPED depending on if the event is explicit or implicit and the location of this event.</t>
+  </si>
+  <si>
+    <t>- check in the script that for both events, the parameters RteMappedToTaskRef, RteActivationOffset and RtePositionInTask are set</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one event, and one constraint file, which has the UNMAPPED attribute set to 'true'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one event, and one constraint file, which has the UNMAPPED attribute set to '1'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one event, and has the UNMAPPED attribute set to 'false'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 5</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one event, and has the UNMAPPED attribute set to '0'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -902,11 +893,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Provide to the tool one arxml file that contains three events (event1 of type SWC-MODE-SWITCH-EVENT , event2 of type DATA-RECEIVED-EVENT and event 3 of type SWC-MODE-SWITCH-EVENT). The event1 one will have ACTIVATION = ON-ENTRY, while the event 3 will have ACTIVATION = ON-EXIT, and all the three events will be mapped on the same task</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one event</t>
     </r>
   </si>
   <si>
@@ -929,18 +921,260 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Provide to the tool one arxml file which contains one TIMING-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the SWC-MODE-SWITCH-EVENT </t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the SWC-MODE-SWITCH-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_PER</t>
+      <t xml:space="preserve"> Provide to the tool one arxml file which contains one SWC-MODE-SWITCH-EVENT ,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the SWC-MODE-SWITCH-EVENT </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool one arxml file that contains  one event and one event constraints file, where the event has &lt;CONTAIN-IMPLICIT-ACCESS&gt;attrbitue set to "true".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool one arxml file that contains  one event and one event constraints file, where the event has &lt;CONTAIN-IMPLICIT-ACCESS&gt;attrbitue set to "1".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool one arxml file that contains  one event and one event constraints file, where the event has &lt;CONTAIN-IMPLICIT-ACCESS&gt;attrbitue not set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files where each one contains one event (event1  and event2), one swc allocation file where for both events, COREs and PARTITIONs are the same and one event constraint file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to 'false', &lt;UNMAPPED&gt; attribute is set to "0" and event1 has an EVENTS-CALLED to event2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files where each one contains one event (event1  and event2), one swc allocation file where for both events, COREs and PARTITIONs are the same and one event constraint file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to 'false', &lt;UNMAPPED&gt; attribute is set to "false" and event1 has an EVENTS-CALLED to event2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 9: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files where each one contains one event (event1  and event2), one swc allocation file where for both events, COREs and PARTITIONs are the same and one event constraint file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to 'false', &lt;UNMAPPED&gt; attribute is set to '1" and event1 has an EVENTS-CALLED to event2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will don't have an &lt;EVENTS-CALLED&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the TIMING-EVENT is present in the script, and it's RteMappedToTaskRef parameter has the correct form: TaskApp_CORE_PARTITION_EVT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file which contains one DATA-RECEIVED-EVENT,  and one allocation file, which has the CORE and PARTITION parameters set for the existing swc component that references the DATA-RECEIVED-EVENT. Also, it will be provided an event constraint file, which for the existing event will  have an &lt;EVENTS-CALLED&gt; not set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files where each one contains one event (event1  and event2), one event constraints file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to 'false' and event1  hasn't an EVENTS-CALLED, and one swc allocation file where for both events, COREs and PARTITIONs are different.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files which contain two events (event1  and event2), one event constraints file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to '0' and event1 has an</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVENTS-CALLED not set, and one swc allocation file where for both events, COREs and PARTITIONs are different.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two arxml files where each one contains one event(event1  and event2), one swc allocation file where for both events, COREs and PARTITIONs are the same and one event constraint file where  &lt;CONTAIN-IMPLICIT-ACCESS&gt; attribute is set to 'false', &lt;UNMAPPED&gt; attribute is set to "true" and event1 has an EVENTS-CALLED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to event2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide to the tool one arxml file that contains three events (event1 of type SWC-MODE-SWITCH-EVENT , event2 of typeTIMING-EVENT and event 3 of type SWC-MODE-SWITCH-EVENT). The event1 one will have ACTIVATION = ON-ENTRY, while the event 3 will have ACTIVATION = ON-EXIT, and all the three events will be mapped on the same task</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- check  in the script that the order is event3, event2,  event1
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +1227,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1312,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1369,135 +1610,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1550,14 +1765,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1816,28 +2023,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +2058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -1865,97 +2072,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="17"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1968,19 +2175,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
@@ -1988,8 +2195,8 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -2008,11 +2215,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" ht="30.75" thickTop="1">
+      <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2022,14 +2229,14 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2042,565 +2249,746 @@
         <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="A12" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A13" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75">
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75">
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="45">
+      <c r="A28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75">
+      <c r="A30" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="53"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="80.25" customHeight="1">
+      <c r="A34" s="53"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60">
+      <c r="A35" s="53"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="75">
+      <c r="A36" s="53"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75">
+      <c r="A37" s="53"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75">
+      <c r="A38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75">
+      <c r="A39" s="54"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="B41" s="38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C41" s="39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D41" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="E41" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A42" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="B42" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27"/>
-  <mergeCells count="8">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
+  <autoFilter ref="A1:E29"/>
+  <mergeCells count="10">
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="E26:E1048576 E1:E22">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+  <conditionalFormatting sqref="E46:E1048576 E1:E43">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30 F2:F22">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+  <conditionalFormatting sqref="F2:F42">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30 F2:F22">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E25">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"not done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="F2:F42">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RTE_Configurator test plan.xlsx
+++ b/RTE_Configurator test plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\RTE_Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="123">
   <si>
     <t>Requirements</t>
   </si>
@@ -1168,13 +1173,68 @@
   <si>
     <t xml:space="preserve">- check  in the script that the order is event3, event2,  event1
 </t>
+  </si>
+  <si>
+    <t>All the events of type &lt;OPERATION-INVOKED-EVENT&gt; which belongs to ASWC IoHwAb  or ASWC Aswc_IntDcm mult not be mapped</t>
+  </si>
+  <si>
+    <t>- check that in the output file the event is not found</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool one file havin one event of type &lt;OPERATION-INVOKED-EVENT&gt; assigned to ASWC IoHwAb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool one file havin one event of type &lt;OPERATION-INVOKED-EVENT&gt; assigned to ASWC Aswc_IntDcm</t>
+    </r>
+  </si>
+  <si>
+    <t>RTE.EXCEPT.OIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,7 +1613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1708,11 +1768,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1765,6 +1881,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2023,28 +2147,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -2072,97 +2196,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="17"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -2175,17 +2299,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
@@ -2195,7 +2319,7 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" thickTop="1">
+    <row r="2" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>29</v>
       </c>
@@ -2235,7 +2359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
@@ -2255,7 +2379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>89</v>
       </c>
@@ -2275,7 +2399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>90</v>
       </c>
@@ -2316,7 +2440,7 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="18" t="s">
@@ -2332,7 +2456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="18" t="s">
@@ -2348,7 +2472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="18" t="s">
@@ -2364,7 +2488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>47</v>
       </c>
@@ -2384,7 +2508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>49</v>
       </c>
@@ -2404,7 +2528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>91</v>
       </c>
@@ -2424,7 +2548,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60.75" customHeight="1">
+    <row r="13" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>92</v>
       </c>
@@ -2444,7 +2568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="47" t="s">
@@ -2460,7 +2584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="65.25" customHeight="1">
+    <row r="15" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="47" t="s">
@@ -2476,7 +2600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="47" t="s">
@@ -2492,7 +2616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="59"/>
       <c r="C17" s="47" t="s">
@@ -2508,7 +2632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>93</v>
       </c>
@@ -2528,7 +2652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="56"/>
       <c r="C19" s="18" t="s">
@@ -2544,7 +2668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="56"/>
       <c r="C20" s="37" t="s">
@@ -2560,7 +2684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="75">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="56"/>
       <c r="C21" s="18" t="s">
@@ -2576,7 +2700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="56"/>
       <c r="C22" s="18" t="s">
@@ -2592,7 +2716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="75">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="56"/>
       <c r="C23" s="18" t="s">
@@ -2608,7 +2732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="75">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="57"/>
       <c r="C24" s="18" t="s">
@@ -2624,7 +2748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
         <v>94</v>
       </c>
@@ -2644,7 +2768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="59"/>
       <c r="C26" s="18" t="s">
@@ -2660,7 +2784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59"/>
       <c r="C27" s="18" t="s">
@@ -2676,7 +2800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="45">
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>95</v>
       </c>
@@ -2696,7 +2820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>64</v>
       </c>
@@ -2716,7 +2840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="75">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>69</v>
       </c>
@@ -2736,7 +2860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>86</v>
       </c>
@@ -2756,7 +2880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="56"/>
       <c r="C32" s="46" t="s">
@@ -2772,7 +2896,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="56"/>
       <c r="C33" s="46" t="s">
@@ -2788,7 +2912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="80.25" customHeight="1">
+    <row r="34" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="56"/>
       <c r="C34" s="46" t="s">
@@ -2804,7 +2928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="60">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="56"/>
       <c r="C35" s="46" t="s">
@@ -2820,7 +2944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="75">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="56"/>
       <c r="C36" s="46" t="s">
@@ -2836,7 +2960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="75">
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="56"/>
       <c r="C37" s="46" t="s">
@@ -2852,7 +2976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="75">
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="56"/>
       <c r="C38" s="46" t="s">
@@ -2868,7 +2992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="75">
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="57"/>
       <c r="C39" s="46" t="s">
@@ -2884,7 +3008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
         <v>78</v>
       </c>
@@ -2904,54 +3028,92 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="43" t="s">
+    <row r="41" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B43" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C43" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D43" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E43" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F43" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A42" s="44" t="s">
+    <row r="44" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B44" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D44" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E44" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E29"/>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="A25:A27"/>
@@ -2963,32 +3125,32 @@
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="A18:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="E46:E1048576 E1:E43">
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+  <conditionalFormatting sqref="E48:E1048576 E1:E45">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42">
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+  <conditionalFormatting sqref="F2:F44">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  <conditionalFormatting sqref="F2:F44">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E44">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
   </dataValidations>
